--- a/RQ/RQ1.replication.xlsx
+++ b/RQ/RQ1.replication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XieJiazhan\Desktop\replication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmwtc\Desktop\之前的研究工作\FSE2021 Task KG研究工作\数据备份\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9689106-BF80-4CAA-9D60-6B78DEE1300E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA578D9-7D44-4A99-885E-A51E54A25006}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6218" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ2.v2.有问题汇总版本" sheetId="1" r:id="rId1"/>
@@ -2224,9 +2224,6 @@
     <t>php read from uploaded text file</t>
   </si>
   <si>
-    <t>&lt;Task [Action]: create [Objects]: [constraint1=java adp=in],[constraint2=list data structure adp=],[patient=link list adp=create]&gt;</t>
-  </si>
-  <si>
     <t>how do i create a linked list data structure in java</t>
   </si>
   <si>
@@ -2341,6 +2338,10 @@
   </si>
   <si>
     <t>score-arbitration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Task [Action]: create [Objects]: [constraint1=java adp=in],[patient=link list data structure adp=create]&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3295,17 +3296,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="4" max="4" width="18.4609375" customWidth="1"/>
-    <col min="5" max="5" width="14.61328125" customWidth="1"/>
+    <col min="3" max="3" width="18.4375" customWidth="1"/>
+    <col min="4" max="4" width="18.4765625" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3316,25 +3318,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E1" t="s">
         <v>770</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>771</v>
       </c>
-      <c r="F1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>10042</v>
       </c>
       <c r="B2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2" t="s">
         <v>734</v>
       </c>
-      <c r="C2" t="s">
-        <v>735</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>34868</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>75175</v>
       </c>
@@ -3385,16 +3387,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>90553</v>
       </c>
       <c r="B5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C5" t="s">
         <v>740</v>
       </c>
-      <c r="C5" t="s">
-        <v>741</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>98484</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>118241</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>124148</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>154309</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>190236</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>220405</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>268393</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>299802</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>300559</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>321864</v>
       </c>
@@ -3605,16 +3607,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>386792</v>
       </c>
       <c r="B16" t="s">
+        <v>735</v>
+      </c>
+      <c r="C16" t="s">
         <v>736</v>
       </c>
-      <c r="C16" t="s">
-        <v>737</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>411810</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>426622</v>
       </c>
@@ -3665,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>437025</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>543513</v>
       </c>
@@ -3705,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A21">
         <v>594537</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22">
         <v>622982</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23">
         <v>656622</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>786708</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25">
         <v>1122691</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26">
         <v>1176904</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A27">
         <v>1208643</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28">
         <v>1247390</v>
       </c>
@@ -3865,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29">
         <v>1301697</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30">
         <v>1302741</v>
       </c>
@@ -3905,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A31">
         <v>1359933</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32">
         <v>1435173</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33">
         <v>1442177</v>
       </c>
@@ -3965,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>1453190</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A35">
         <v>1565388</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36">
         <v>1667868</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37">
         <v>1696028</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38">
         <v>1738980</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39">
         <v>1746840</v>
       </c>
@@ -4085,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40">
         <v>1758762</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A41">
         <v>1808248</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A42">
         <v>1846215</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A43">
         <v>2019362</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A44">
         <v>2042357</v>
       </c>
@@ -4185,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A45">
         <v>2063508</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A46">
         <v>2065553</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A47">
         <v>2190850</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A48">
         <v>2201379</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A49">
         <v>2202995</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A50">
         <v>2331698</v>
       </c>
@@ -4305,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A51">
         <v>2411343</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A52">
         <v>2433727</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A53">
         <v>2438864</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A54">
         <v>2441906</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A55">
         <v>2537262</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A56">
         <v>2638161</v>
       </c>
@@ -4425,16 +4427,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A57">
         <v>2669130</v>
       </c>
       <c r="B57" t="s">
+        <v>737</v>
+      </c>
+      <c r="C57" t="s">
         <v>738</v>
       </c>
-      <c r="C57" t="s">
-        <v>739</v>
-      </c>
       <c r="D57">
         <v>1</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A58">
         <v>2688020</v>
       </c>
@@ -4465,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A59">
         <v>2765888</v>
       </c>
@@ -4485,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A60">
         <v>2980143</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A61">
         <v>2990003</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A62">
         <v>3003031</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A63">
         <v>3013280</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A64">
         <v>3186635</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A65">
         <v>3197439</v>
       </c>
@@ -4605,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A66">
         <v>3234205</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A67">
         <v>3289198</v>
       </c>
@@ -4645,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A68">
         <v>3463756</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A69">
         <v>3524415</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A70">
         <v>3535799</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A71">
         <v>3619796</v>
       </c>
@@ -4725,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A72">
         <v>3720096</v>
       </c>
@@ -4745,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A73">
         <v>3725719</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A74">
         <v>3825645</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A75">
         <v>3922151</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A76">
         <v>3957717</v>
       </c>
@@ -4825,16 +4827,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A77">
         <v>4048006</v>
       </c>
       <c r="B77" t="s">
+        <v>741</v>
+      </c>
+      <c r="C77" t="s">
         <v>742</v>
       </c>
-      <c r="C77" t="s">
-        <v>743</v>
-      </c>
       <c r="D77">
         <v>1</v>
       </c>
@@ -4845,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A78">
         <v>4117466</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A79">
         <v>4129697</v>
       </c>
@@ -4885,16 +4887,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A80">
         <v>4371003</v>
       </c>
       <c r="B80" t="s">
+        <v>767</v>
+      </c>
+      <c r="C80" t="s">
         <v>768</v>
       </c>
-      <c r="C80" t="s">
-        <v>769</v>
-      </c>
       <c r="D80">
         <v>0</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A81">
         <v>4420696</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A82">
         <v>4431216</v>
       </c>
@@ -4945,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A83">
         <v>4604199</v>
       </c>
@@ -4965,16 +4967,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A84">
         <v>4697758</v>
       </c>
       <c r="B84" t="s">
+        <v>757</v>
+      </c>
+      <c r="C84" t="s">
         <v>758</v>
       </c>
-      <c r="C84" t="s">
-        <v>759</v>
-      </c>
       <c r="D84">
         <v>0</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A85">
         <v>4740806</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A86">
         <v>4798063</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A87">
         <v>5052315</v>
       </c>
@@ -5045,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A88">
         <v>5081191</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A89">
         <v>5139467</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A90">
         <v>5142418</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A91">
         <v>5172630</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A92">
         <v>5216162</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A93">
         <v>5228898</v>
       </c>
@@ -5165,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A94">
         <v>5322788</v>
       </c>
@@ -5185,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A95">
         <v>5339339</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A96">
         <v>5410238</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A97">
         <v>5473031</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A98">
         <v>5496944</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A99">
         <v>5675490</v>
       </c>
@@ -5285,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A100">
         <v>5714768</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A101">
         <v>5763557</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A102">
         <v>6005751</v>
       </c>
@@ -5345,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A103">
         <v>6038867</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A104">
         <v>6071618</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A105">
         <v>6077909</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A106">
         <v>6117501</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A107">
         <v>6280656</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A108">
         <v>6300972</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A109">
         <v>6416050</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A110">
         <v>6434796</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A111">
         <v>6554039</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A112">
         <v>6699440</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A113">
         <v>6730814</v>
       </c>
@@ -5565,16 +5567,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A114">
         <v>6741246</v>
       </c>
       <c r="B114" t="s">
+        <v>765</v>
+      </c>
+      <c r="C114" t="s">
         <v>766</v>
       </c>
-      <c r="C114" t="s">
-        <v>767</v>
-      </c>
       <c r="D114">
         <v>0</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A115">
         <v>6776252</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A116">
         <v>6780981</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A117">
         <v>6791970</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A118">
         <v>6802956</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A119">
         <v>6815669</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A120">
         <v>6913512</v>
       </c>
@@ -5705,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A121">
         <v>6974231</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A122">
         <v>7025909</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A123">
         <v>7097374</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A124">
         <v>7157501</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A125">
         <v>7184577</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A126">
         <v>7261045</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A127">
         <v>7464468</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A128">
         <v>7498648</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A129">
         <v>7646162</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A130">
         <v>7801165</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A131">
         <v>7877435</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A132">
         <v>7915315</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A133">
         <v>7932964</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A134">
         <v>7983724</v>
       </c>
@@ -5985,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A135">
         <v>8154505</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A136">
         <v>8251892</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A137">
         <v>8377671</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A138">
         <v>8405320</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A139">
         <v>8421337</v>
       </c>
@@ -6085,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A140">
         <v>8465155</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A141">
         <v>8683411</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A142">
         <v>8870813</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A143">
         <v>8878886</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A144">
         <v>8937219</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A145">
         <v>8993295</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A146">
         <v>9014062</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A147">
         <v>9019690</v>
       </c>
@@ -6245,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A148">
         <v>9106516</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A149">
         <v>9164625</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A150">
         <v>9260409</v>
       </c>
@@ -6305,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A151">
         <v>9321009</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A152">
         <v>9321009</v>
       </c>
@@ -6345,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A153">
         <v>9331837</v>
       </c>
@@ -6365,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A154">
         <v>9333036</v>
       </c>
@@ -6385,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A155">
         <v>9379899</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A156">
         <v>9437121</v>
       </c>
@@ -6425,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A157">
         <v>9525882</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A158">
         <v>9548779</v>
       </c>
@@ -6465,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A159">
         <v>9560972</v>
       </c>
@@ -6485,16 +6487,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A160">
         <v>9575409</v>
       </c>
       <c r="B160" t="s">
+        <v>747</v>
+      </c>
+      <c r="C160" t="s">
         <v>748</v>
       </c>
-      <c r="C160" t="s">
-        <v>749</v>
-      </c>
       <c r="D160">
         <v>1</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A161">
         <v>9646015</v>
       </c>
@@ -6525,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A162">
         <v>9689816</v>
       </c>
@@ -6545,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A163">
         <v>9709847</v>
       </c>
@@ -6565,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A164">
         <v>9996727</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A165">
         <v>10007631</v>
       </c>
@@ -6605,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A166">
         <v>10143875</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A167">
         <v>10459477</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A168">
         <v>10530102</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A169">
         <v>10664940</v>
       </c>
@@ -6685,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A170">
         <v>10849893</v>
       </c>
@@ -6705,16 +6707,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A171">
         <v>10999990</v>
       </c>
       <c r="B171" t="s">
+        <v>753</v>
+      </c>
+      <c r="C171" t="s">
         <v>754</v>
       </c>
-      <c r="C171" t="s">
-        <v>755</v>
-      </c>
       <c r="D171">
         <v>0</v>
       </c>
@@ -6725,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A172">
         <v>11156708</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A173">
         <v>11261692</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A174">
         <v>11409690</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A175">
         <v>11448972</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A176">
         <v>11562996</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A177">
         <v>11597421</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A178">
         <v>11660937</v>
       </c>
@@ -6865,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A179">
         <v>11782076</v>
       </c>
@@ -6885,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A180">
         <v>11801630</v>
       </c>
@@ -6905,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A181">
         <v>11928136</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A182">
         <v>11985448</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A183">
         <v>12139670</v>
       </c>
@@ -6965,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A184">
         <v>12191311</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A185">
         <v>12235967</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A186">
         <v>12336234</v>
       </c>
@@ -7025,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A187">
         <v>12412213</v>
       </c>
@@ -7045,16 +7047,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A188">
         <v>12624532</v>
       </c>
       <c r="B188" t="s">
+        <v>751</v>
+      </c>
+      <c r="C188" t="s">
         <v>752</v>
       </c>
-      <c r="C188" t="s">
-        <v>753</v>
-      </c>
       <c r="D188">
         <v>1</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A189">
         <v>12631327</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A190">
         <v>12682553</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A191">
         <v>12823568</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A192">
         <v>12980121</v>
       </c>
@@ -7145,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A193">
         <v>13007355</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A194">
         <v>13130389</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A195">
         <v>13719553</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A196">
         <v>13973233</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A197">
         <v>13984357</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A198">
         <v>14013959</v>
       </c>
@@ -7265,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A199">
         <v>14255618</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A200">
         <v>14444228</v>
       </c>
@@ -7305,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A201">
         <v>14497711</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A202">
         <v>14672746</v>
       </c>
@@ -7345,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A203">
         <v>14722873</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A204">
         <v>14745458</v>
       </c>
@@ -7385,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A205">
         <v>14848229</v>
       </c>
@@ -7405,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A206">
         <v>14963756</v>
       </c>
@@ -7425,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A207">
         <v>15028527</v>
       </c>
@@ -7445,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A208">
         <v>15368059</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A209">
         <v>15392261</v>
       </c>
@@ -7485,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A210">
         <v>15460648</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A211">
         <v>15518772</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A212">
         <v>15693529</v>
       </c>
@@ -7545,16 +7547,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A213">
         <v>15738700</v>
       </c>
       <c r="B213" t="s">
+        <v>749</v>
+      </c>
+      <c r="C213" t="s">
         <v>750</v>
       </c>
-      <c r="C213" t="s">
-        <v>751</v>
-      </c>
       <c r="D213">
         <v>1</v>
       </c>
@@ -7565,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A214">
         <v>15769673</v>
       </c>
@@ -7585,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A215">
         <v>16005136</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A216">
         <v>16033017</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A217">
         <v>16052047</v>
       </c>
@@ -7645,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A218">
         <v>16175153</v>
       </c>
@@ -7665,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A219">
         <v>16264289</v>
       </c>
@@ -7685,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A220">
         <v>16273635</v>
       </c>
@@ -7705,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A221">
         <v>16585055</v>
       </c>
@@ -7725,16 +7727,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A222">
         <v>16765527</v>
       </c>
       <c r="B222" t="s">
+        <v>745</v>
+      </c>
+      <c r="C222" t="s">
         <v>746</v>
       </c>
-      <c r="C222" t="s">
-        <v>747</v>
-      </c>
       <c r="D222">
         <v>1</v>
       </c>
@@ -7745,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A223">
         <v>16808911</v>
       </c>
@@ -7765,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A224">
         <v>16998169</v>
       </c>
@@ -7785,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A225">
         <v>17134716</v>
       </c>
@@ -7805,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A226">
         <v>17183587</v>
       </c>
@@ -7825,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A227">
         <v>17471439</v>
       </c>
@@ -7845,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A228">
         <v>17540461</v>
       </c>
@@ -7865,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A229">
         <v>17654681</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A230">
         <v>17670685</v>
       </c>
@@ -7905,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A231">
         <v>18018186</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A232">
         <v>18206615</v>
       </c>
@@ -7945,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A233">
         <v>18309544</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A234">
         <v>18484988</v>
       </c>
@@ -7985,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A235">
         <v>18497397</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A236">
         <v>18558183</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A237">
         <v>18608208</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A238">
         <v>18918579</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A239">
         <v>18929546</v>
       </c>
@@ -8085,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A240">
         <v>18985578</v>
       </c>
@@ -8105,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A241">
         <v>18998543</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A242">
         <v>19253786</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A243">
         <v>19454769</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A244">
         <v>19567538</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A245">
         <v>19569557</v>
       </c>
@@ -8205,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A246">
         <v>19648166</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A247">
         <v>19708157</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A248">
         <v>19919679</v>
       </c>
@@ -8265,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A249">
         <v>20185015</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A250">
         <v>20211942</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A251">
         <v>20245862</v>
       </c>
@@ -8325,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A252">
         <v>20253246</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A253">
         <v>20389248</v>
       </c>
@@ -8365,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A254">
         <v>20707804</v>
       </c>
@@ -8385,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A255">
         <v>20736675</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A256">
         <v>21731015</v>
       </c>
@@ -8425,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A257">
         <v>21834676</v>
       </c>
@@ -8445,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A258">
         <v>21927819</v>
       </c>
@@ -8465,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A259">
         <v>22371626</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A260">
         <v>23000604</v>
       </c>
@@ -8505,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A261">
         <v>23341945</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A262">
         <v>23725035</v>
       </c>
@@ -8545,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A263">
         <v>23960667</v>
       </c>
@@ -8565,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A264">
         <v>24005901</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A265">
         <v>24036384</v>
       </c>
@@ -8605,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A266">
         <v>24142802</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A267">
         <v>24352151</v>
       </c>
@@ -8645,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A268">
         <v>24416002</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A269">
         <v>24434850</v>
       </c>
@@ -8685,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A270">
         <v>24481852</v>
       </c>
@@ -8705,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A271">
         <v>24948577</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A272">
         <v>24950435</v>
       </c>
@@ -8745,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A273">
         <v>25107774</v>
       </c>
@@ -8765,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A274">
         <v>25290923</v>
       </c>
@@ -8785,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A275">
         <v>25696615</v>
       </c>
@@ -8805,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A276">
         <v>25858698</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A277">
         <v>26150522</v>
       </c>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A278">
         <v>26195091</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A279">
         <v>26354329</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A280">
         <v>26561579</v>
       </c>
@@ -8905,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A281">
         <v>26573556</v>
       </c>
@@ -8925,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A282">
         <v>26577038</v>
       </c>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A283">
         <v>26859800</v>
       </c>
@@ -8965,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A284">
         <v>27486913</v>
       </c>
@@ -8985,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A285">
         <v>27861732</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A286">
         <v>28232261</v>
       </c>
@@ -9025,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A287">
         <v>28369574</v>
       </c>
@@ -9045,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A288">
         <v>28901375</v>
       </c>
@@ -9065,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A289">
         <v>28914078</v>
       </c>
@@ -9085,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A290">
         <v>28950212</v>
       </c>
@@ -9105,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A291">
         <v>29211263</v>
       </c>
@@ -9125,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A292">
         <v>29365833</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A293">
         <v>29566527</v>
       </c>
@@ -9165,16 +9167,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A294">
         <v>29772158</v>
       </c>
       <c r="B294" t="s">
+        <v>763</v>
+      </c>
+      <c r="C294" t="s">
         <v>764</v>
       </c>
-      <c r="C294" t="s">
-        <v>765</v>
-      </c>
       <c r="D294">
         <v>0</v>
       </c>
@@ -9185,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A295">
         <v>29872918</v>
       </c>
@@ -9205,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A296">
         <v>30031828</v>
       </c>
@@ -9225,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A297">
         <v>30052254</v>
       </c>
@@ -9245,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A298">
         <v>30810679</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A299">
         <v>30876109</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A300">
         <v>31111032</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A301">
         <v>31608394</v>
       </c>
@@ -9325,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A302">
         <v>32393134</v>
       </c>
@@ -9345,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A303">
         <v>32419136</v>
       </c>
@@ -9365,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A304">
         <v>33845604</v>
       </c>
@@ -9385,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A305">
         <v>34015785</v>
       </c>
@@ -9405,16 +9407,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A306">
         <v>34077087</v>
       </c>
       <c r="B306" t="s">
+        <v>755</v>
+      </c>
+      <c r="C306" t="s">
         <v>756</v>
       </c>
-      <c r="C306" t="s">
-        <v>757</v>
-      </c>
       <c r="D306">
         <v>0</v>
       </c>
@@ -9425,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A307">
         <v>34143341</v>
       </c>
@@ -9445,16 +9447,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A308">
         <v>34382796</v>
       </c>
       <c r="B308" t="s">
+        <v>761</v>
+      </c>
+      <c r="C308" t="s">
         <v>762</v>
       </c>
-      <c r="C308" t="s">
-        <v>763</v>
-      </c>
       <c r="D308">
         <v>0</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A309">
         <v>34427663</v>
       </c>
@@ -9485,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A310">
         <v>34660265</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A311">
         <v>34660385</v>
       </c>
@@ -9525,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A312">
         <v>34751794</v>
       </c>
@@ -9545,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A313">
         <v>34769169</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A314">
         <v>35337020</v>
       </c>
@@ -9585,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A315">
         <v>36215968</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A316">
         <v>36588915</v>
       </c>
@@ -9625,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A317">
         <v>36901154</v>
       </c>
@@ -9645,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A318">
         <v>36979986</v>
       </c>
@@ -9665,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A319">
         <v>37377478</v>
       </c>
@@ -9685,16 +9687,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A320">
         <v>37393176</v>
       </c>
       <c r="B320" t="s">
+        <v>743</v>
+      </c>
+      <c r="C320" t="s">
         <v>744</v>
       </c>
-      <c r="C320" t="s">
-        <v>745</v>
-      </c>
       <c r="D320">
         <v>1</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A321">
         <v>37782485</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A322">
         <v>38000659</v>
       </c>
@@ -9745,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A323">
         <v>38378002</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A324">
         <v>40083266</v>
       </c>
@@ -9785,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A325">
         <v>40297763</v>
       </c>
@@ -9805,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A326">
         <v>40991083</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A327">
         <v>41104409</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A328">
         <v>41292788</v>
       </c>
@@ -9865,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A329">
         <v>41414796</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A330">
         <v>41948698</v>
       </c>
@@ -9905,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A331">
         <v>41958548</v>
       </c>
@@ -9925,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A332">
         <v>42157944</v>
       </c>
@@ -9945,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A333">
         <v>42217815</v>
       </c>
@@ -9965,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A334">
         <v>42251826</v>
       </c>
@@ -9985,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A335">
         <v>42392441</v>
       </c>
@@ -10005,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A336">
         <v>42430260</v>
       </c>
@@ -10025,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A337">
         <v>42849166</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A338">
         <v>43327464</v>
       </c>
@@ -10065,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A339">
         <v>43357472</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A340">
         <v>43429788</v>
       </c>
@@ -10105,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A341">
         <v>43530880</v>
       </c>
@@ -10125,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A342">
         <v>43609062</v>
       </c>
@@ -10145,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A343">
         <v>43650860</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A344">
         <v>43868329</v>
       </c>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A345">
         <v>44062024</v>
       </c>
@@ -10205,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A346">
         <v>45243042</v>
       </c>
@@ -10225,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A347">
         <v>45876514</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A348">
         <v>46037039</v>
       </c>
@@ -10265,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A349">
         <v>46175390</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A350">
         <v>46664935</v>
       </c>
@@ -10305,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A351">
         <v>46849286</v>
       </c>
@@ -10325,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A352">
         <v>46974869</v>
       </c>
@@ -10345,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A353">
         <v>46975929</v>
       </c>
@@ -10365,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A354">
         <v>47062922</v>
       </c>
@@ -10385,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A355">
         <v>47097720</v>
       </c>
@@ -10405,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A356">
         <v>47168446</v>
       </c>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A357">
         <v>47443332</v>
       </c>
@@ -10445,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A358">
         <v>47601118</v>
       </c>
@@ -10465,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A359">
         <v>47834025</v>
       </c>
@@ -10485,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A360">
         <v>47906116</v>
       </c>
@@ -10505,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A361">
         <v>48129222</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A362">
         <v>48400324</v>
       </c>
@@ -10545,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A363">
         <v>48630606</v>
       </c>
@@ -10565,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A364">
         <v>49127470</v>
       </c>
@@ -10585,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A365">
         <v>49280675</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A366">
         <v>49291740</v>
       </c>
@@ -10625,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A367">
         <v>49380572</v>
       </c>
@@ -10645,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A368">
         <v>50473637</v>
       </c>
@@ -10665,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A369">
         <v>51525036</v>
       </c>
@@ -10685,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A370">
         <v>51568427</v>
       </c>
@@ -10705,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A371">
         <v>51591257</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A372">
         <v>52443862</v>
       </c>
@@ -10745,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A373">
         <v>52508126</v>
       </c>
@@ -10765,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A374">
         <v>52984769</v>
       </c>
@@ -10785,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A375">
         <v>53565534</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A376">
         <v>53778890</v>
       </c>
@@ -10825,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A377">
         <v>54054448</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A378">
         <v>54600369</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A379">
         <v>54687705</v>
       </c>
@@ -10885,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A380">
         <v>55063265</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A381">
         <v>56067518</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A382">
         <v>56835040</v>
       </c>
@@ -10945,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A383">
         <v>59424673</v>
       </c>
@@ -10965,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A384">
         <v>59711301</v>
       </c>
@@ -10985,16 +10987,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A385">
         <v>65707514</v>
       </c>
       <c r="B385" t="s">
+        <v>759</v>
+      </c>
+      <c r="C385" t="s">
         <v>760</v>
       </c>
-      <c r="C385" t="s">
-        <v>761</v>
-      </c>
       <c r="D385">
         <v>0</v>
       </c>
@@ -11006,7 +11008,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F385">
+  <sortState ref="A2:F385">
     <sortCondition ref="A5:A385"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
